--- a/excercises/excercises 2/ex050.GLwell.xlsx
+++ b/excercises/excercises 2/ex050.GLwell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8743B0-6CFD-4F17-8E98-1822E8547B09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282A823-8725-49F6-99F2-D7133F8F620D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{ADBF4E5D-0798-499D-9D10-654FD7D2E056}"/>
   </bookViews>
@@ -749,6 +749,961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$54:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$54:$P$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>105.33138056030971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101.94830783881535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F8B-4523-909D-EEBD89D80993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1934489456"/>
+        <c:axId val="1925532144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1934489456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1925532144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1925532144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934489456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>77694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82177</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379537F9-3804-4AD1-ABF0-2ADC88E27CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,10 +2029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F10A62-D05C-491B-8F88-E1739EA5B3FB}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:N51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,9 +2266,15 @@
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4">
+        <v>1200</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
@@ -1457,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>49</v>
       </c>
@@ -1466,16 +2427,16 @@
         <v>hperf_m:2000,00000;hpump_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:0,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="str">
         <f>[1]!wellGL_encode_string(Hmes,Htube,Hmes_Hvert,IDcas,IDtub,,,Tres,Tbuf,G19:G21,H19:H21,I19:I21)</f>
-        <v>hperf_m:2000,00000;htub_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:15,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;GLV:1;H_glv_m1:0,000;d_glv_mm1:0,000;p_glv_atma1:0,000;</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
+        <v>hperf_m:2000,00000;htub_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:15,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;GLV:1;H_glv_m1:1200,000;d_glv_mm1:2,000;p_glv_atma1:10,000;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1484,16 +2445,16 @@
         <v>gamma_gas:0,600;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:100,000;rp_m3m3:-1,000;pb_atma:-1,000;tres_C:90,000;bob_m3m3:-1,000;muob_cP:-1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D40">
-        <f t="array" ref="D40:N41">[1]!wellGL_plin_pwf_atma(Pwf,q,fw,Pcas,qgas,D36,D37,0)</f>
-        <v>11.879874744154709</v>
+        <f t="array" ref="D40:Q41">[1]!wellGL_plin_pwf_atma(Pwf,q,fw,Pcas,qgas,D36,D37,0)</f>
+        <v>17.180559631683572</v>
       </c>
       <c r="E40">
-        <v>11.879874744154709</v>
+        <v>17.180559631683572</v>
       </c>
       <c r="F40">
-        <v>11.879874744154709</v>
+        <v>17.180559631683572</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -1505,33 +2466,42 @@
         <v>100</v>
       </c>
       <c r="J40">
-        <v>20.000000000000004</v>
+        <v>108.68969311513779</v>
       </c>
       <c r="K40">
+        <v>58.67298765020174</v>
+      </c>
+      <c r="L40">
+        <v>1200</v>
+      </c>
+      <c r="M40">
+        <v>5769.9401376696815</v>
+      </c>
+      <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
         <v>80</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="P40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D41" t="str">
-        <v>plin</v>
+        <v>p_line_atma</v>
       </c>
       <c r="E41" t="str">
-        <v>Pline_atma</v>
+        <v>p_line_atma</v>
       </c>
       <c r="F41" t="str">
-        <v>pbuf_atma</v>
+        <v>p_buf_atma</v>
       </c>
       <c r="G41" t="str">
-        <v>Pcas_atma</v>
+        <v>p_cas_atma</v>
       </c>
       <c r="H41" t="str">
         <v>Pgas_inj_atma</v>
@@ -1540,22 +2510,31 @@
         <v>pwf_atma</v>
       </c>
       <c r="J41" t="str">
+        <v>GLV1.p_in_atma</v>
+      </c>
+      <c r="K41" t="str">
+        <v>GLV1.p_out_atma</v>
+      </c>
+      <c r="L41" t="str">
+        <v>GLV1.h_mes_m</v>
+      </c>
+      <c r="M41" t="str">
+        <v>GLV1.q_gas_inj_scm3day</v>
+      </c>
+      <c r="N41" t="str">
         <v>Tbuf_C</v>
       </c>
-      <c r="K41" t="str">
+      <c r="O41" t="str">
         <v>tbh_C</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="P41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D44">
         <f t="array" ref="D44:N45">[1]!well_plin_pwf_atma(q,fw,Pwf,,D35,D37,0,0)</f>
         <v>11.879874744154709</v>
@@ -1591,7 +2570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D45" t="str">
         <v>Pline_atma</v>
       </c>
@@ -1626,7 +2605,7 @@
         <v>Tsurf_C</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D47">
         <f t="array" ref="D47:N48">[1]!well_pwf_plin_atma(q,fw,Pbuf,Pcas,D35,D37,0)</f>
         <v>116.70250329767256</v>
@@ -1662,7 +2641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D48" t="str">
         <v>pwf_atma</v>
       </c>
@@ -1697,16 +2676,16 @@
         <v>Tsurf_C</v>
       </c>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D50">
         <f t="array" ref="D50:N51">[1]!wellGL_pwf_plin_atma(Pbuf,q,fw,Pcas,qgas,D36,D37,0)</f>
-        <v>19.996867623705253</v>
+        <v>105.33138056030971</v>
       </c>
       <c r="E50">
-        <v>19.996867623705253</v>
+        <v>19.986147873979082</v>
       </c>
       <c r="F50">
-        <v>19.996867623705253</v>
+        <v>19.986147873979082</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -1715,36 +2694,36 @@
         <v>100</v>
       </c>
       <c r="I50">
-        <v>116.6965338021388</v>
+        <v>105.33138056030971</v>
       </c>
       <c r="J50">
-        <v>20.000000000000004</v>
+        <v>108.68969311513779</v>
       </c>
       <c r="K50">
-        <v>80</v>
+        <v>63.18944603545107</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>5751.385125818606</v>
       </c>
       <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D51" t="str">
-        <v>plin</v>
+        <v>pwf_atma</v>
       </c>
       <c r="E51" t="str">
-        <v>Pline_atma</v>
+        <v>p_line_atma</v>
       </c>
       <c r="F51" t="str">
-        <v>pbuf_atma</v>
+        <v>p_buf_atma</v>
       </c>
       <c r="G51" t="str">
-        <v>Pcas_atma</v>
+        <v>p_cas_atma</v>
       </c>
       <c r="H51" t="str">
         <v>Pgas_inj_atma</v>
@@ -1753,22 +2732,332 @@
         <v>pwf_atma</v>
       </c>
       <c r="J51" t="str">
+        <v>GLV1.p_in_atma</v>
+      </c>
+      <c r="K51" t="str">
+        <v>GLV1.p_out_atma</v>
+      </c>
+      <c r="L51" t="str">
+        <v>GLV1.h_mes_m</v>
+      </c>
+      <c r="M51" t="str">
+        <v>GLV1.q_gas_inj_scm3day</v>
+      </c>
+      <c r="N51" t="str">
         <v>Tbuf_C</v>
       </c>
-      <c r="K51" t="str">
-        <v>tbh_C</v>
-      </c>
-      <c r="L51">
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C54">
         <v>0</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
+      <c r="D54">
+        <f t="array" ref="D54:N54">[1]!wellGL_plin_pwf_atma(Pwf,q,fw,Pcas,C54,$D$36,$D$37,0)</f>
+        <v>17.180559631683572</v>
+      </c>
+      <c r="E54">
+        <v>17.180559631683572</v>
+      </c>
+      <c r="F54">
+        <v>17.180559631683572</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>108.68969311513779</v>
+      </c>
+      <c r="K54">
+        <v>58.67298765020174</v>
+      </c>
+      <c r="L54">
+        <v>1200</v>
+      </c>
+      <c r="M54">
+        <v>5769.9401376696815</v>
+      </c>
+      <c r="N54">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <f t="array" ref="P54:Z54">[1]!wellGL_pwf_plin_atma(Pbuf,q,fw,Pcas,C54,$D$36,$D$37,0)</f>
+        <v>105.33138056030971</v>
+      </c>
+      <c r="Q54">
+        <v>19.986147873979082</v>
+      </c>
+      <c r="R54">
+        <v>19.986147873979082</v>
+      </c>
+      <c r="S54">
+        <v>100</v>
+      </c>
+      <c r="T54">
+        <v>100</v>
+      </c>
+      <c r="U54">
+        <v>105.33138056030971</v>
+      </c>
+      <c r="V54">
+        <v>108.68969311513779</v>
+      </c>
+      <c r="W54">
+        <v>63.18944603545107</v>
+      </c>
+      <c r="X54">
+        <v>1200</v>
+      </c>
+      <c r="Y54">
+        <v>5751.385125818606</v>
+      </c>
+      <c r="Z54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="72" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>100000</v>
+      </c>
+      <c r="D74">
+        <f t="array" ref="D74:N75">[1]!wellGL_plin_pwf_atma(Pwf,q,fw,Pcas,C74,$D$36,$D$37,0)</f>
+        <v>17.1821566282043</v>
+      </c>
+      <c r="E74">
+        <v>17.1821566282043</v>
+      </c>
+      <c r="F74">
+        <v>17.1821566282043</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>108.68969311513779</v>
+      </c>
+      <c r="K74">
+        <v>58.67298765020174</v>
+      </c>
+      <c r="L74">
+        <v>1200</v>
+      </c>
+      <c r="M74">
+        <v>100000</v>
+      </c>
+      <c r="N74">
+        <v>20</v>
+      </c>
+      <c r="P74">
+        <f t="array" ref="P74:Z75">[1]!wellGL_pwf_plin_atma(Pbuf,q,fw,Pcas,C74,$D$36,$D$37,0)</f>
+        <v>101.94830783881535</v>
+      </c>
+      <c r="Q74">
+        <v>20.015861891645073</v>
+      </c>
+      <c r="R74">
+        <v>20.015861891645073</v>
+      </c>
+      <c r="S74">
+        <v>100</v>
+      </c>
+      <c r="T74">
+        <v>100</v>
+      </c>
+      <c r="U74">
+        <v>101.94830783881535</v>
+      </c>
+      <c r="V74">
+        <v>108.68969311513779</v>
+      </c>
+      <c r="W74">
+        <v>60.316387173259876</v>
+      </c>
+      <c r="X74">
+        <v>1200</v>
+      </c>
+      <c r="Y74">
+        <v>100000</v>
+      </c>
+      <c r="Z74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D75" t="str">
+        <v>p_line_atma</v>
+      </c>
+      <c r="E75" t="str">
+        <v>p_line_atma</v>
+      </c>
+      <c r="F75" t="str">
+        <v>p_buf_atma</v>
+      </c>
+      <c r="G75" t="str">
+        <v>p_cas_atma</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Pgas_inj_atma</v>
+      </c>
+      <c r="I75" t="str">
+        <v>pwf_atma</v>
+      </c>
+      <c r="J75" t="str">
+        <v>GLV1.p_in_atma</v>
+      </c>
+      <c r="K75" t="str">
+        <v>GLV1.p_out_atma</v>
+      </c>
+      <c r="L75" t="str">
+        <v>GLV1.h_mes_m</v>
+      </c>
+      <c r="M75" t="str">
+        <v>GLV1.q_gas_inj_scm3day</v>
+      </c>
+      <c r="N75" t="str">
+        <v>Tbuf_C</v>
+      </c>
+      <c r="P75" t="str">
+        <v>pwf_atma</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>p_line_atma</v>
+      </c>
+      <c r="R75" t="str">
+        <v>p_buf_atma</v>
+      </c>
+      <c r="S75" t="str">
+        <v>p_cas_atma</v>
+      </c>
+      <c r="T75" t="str">
+        <v>Pgas_inj_atma</v>
+      </c>
+      <c r="U75" t="str">
+        <v>pwf_atma</v>
+      </c>
+      <c r="V75" t="str">
+        <v>GLV1.p_in_atma</v>
+      </c>
+      <c r="W75" t="str">
+        <v>GLV1.p_out_atma</v>
+      </c>
+      <c r="X75" t="str">
+        <v>GLV1.h_mes_m</v>
+      </c>
+      <c r="Y75" t="str">
+        <v>GLV1.q_gas_inj_scm3day</v>
+      </c>
+      <c r="Z75" t="str">
+        <v>Tbuf_C</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excercises/excercises 2/ex050.GLwell.xlsx
+++ b/excercises/excercises 2/ex050.GLwell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282A823-8725-49F6-99F2-D7133F8F620D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF28928-AE80-448A-A0A5-A42CEC7401E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{ADBF4E5D-0798-499D-9D10-654FD7D2E056}"/>
   </bookViews>
@@ -2032,7 +2032,7 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
